--- a/csv/xlsx/HashMap.xlsx
+++ b/csv/xlsx/HashMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guozn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GZN\HIT\个人文件\2020春软件构造\2020Labs\LIST\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D779BF-7E73-4BA4-95F1-6619B278623F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{759A926B-4750-41C1-9E8F-344A58E57D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2796" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="HashMap" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,42 +993,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.27800000000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="B2">
-        <v>0.26300000000000001</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.27100000000000002</v>
+        <v>0.622</v>
       </c>
       <c r="B3">
-        <v>0.218</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.312</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="B4">
-        <v>0.28799999999999998</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.33100000000000002</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="B5">
-        <v>0.26800000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.308</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="B6">
-        <v>0.217</v>
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="B8">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.64</v>
+      </c>
+      <c r="B11">
+        <v>0.504</v>
       </c>
     </row>
   </sheetData>
